--- a/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08876776111044971</v>
+        <v>0.08710830912930234</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08290312375289187</v>
+        <v>0.0846904815366365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0711945082154077</v>
+        <v>0.07085691353462563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1653947133833691</v>
+        <v>0.172827638167792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1033613354928623</v>
+        <v>0.1097576362155911</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1102508981297038</v>
+        <v>0.1149132308130549</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09190054562017405</v>
+        <v>0.09028383417374861</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1450862664605193</v>
+        <v>0.1455565793306986</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1066474468231584</v>
+        <v>0.1070949023844829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1092165819640961</v>
+        <v>0.1112452003253307</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08787104400905231</v>
+        <v>0.0895634990628783</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1708762491061724</v>
+        <v>0.1659837164687843</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1660026082123952</v>
+        <v>0.163061937186727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1648551850086966</v>
+        <v>0.1684027711176111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1391597432273584</v>
+        <v>0.1443984859150489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2543417962129922</v>
+        <v>0.2567476074623265</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.193416771637757</v>
+        <v>0.1986228529985882</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2074478510172829</v>
+        <v>0.2042574724431612</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1763968060953103</v>
+        <v>0.1751292434227614</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2073944834656501</v>
+        <v>0.2061059693193407</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1640251946019133</v>
+        <v>0.1653652919823026</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1692730734230609</v>
+        <v>0.1700433786883836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1430195943899511</v>
+        <v>0.1444633847387236</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2251376576951426</v>
+        <v>0.2207129816834758</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1936283489064519</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1514748709277568</v>
+        <v>0.1514748709277567</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08131124686966036</v>
+        <v>0.08007420711855223</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1232494781437429</v>
+        <v>0.125851891822967</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1305482556431072</v>
+        <v>0.1302498160942704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1168007830423056</v>
+        <v>0.1219898877437836</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1439211930770322</v>
+        <v>0.1479680288867901</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1702418240639615</v>
+        <v>0.1726566421914598</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1908922982235094</v>
+        <v>0.1873202758817655</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1274338056325634</v>
+        <v>0.1284104507925843</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1237845753159177</v>
+        <v>0.1234248942931835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1578551133978848</v>
+        <v>0.1580451533622606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1676393796248355</v>
+        <v>0.1686116486945623</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1339620331566343</v>
+        <v>0.1306428941040938</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.136716677204049</v>
+        <v>0.1368302312714836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1938490457816753</v>
+        <v>0.1961054619204461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1972510816888138</v>
+        <v>0.1957915957889429</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1862058216163232</v>
+        <v>0.1876026680442335</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2157733021274674</v>
+        <v>0.2178163123928706</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2445439165419886</v>
+        <v>0.2460079513286493</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2659801177396028</v>
+        <v>0.2690962462540973</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1816360249193169</v>
+        <v>0.1784511457723792</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1667833217518685</v>
+        <v>0.166907115102273</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2103504670230797</v>
+        <v>0.2056898212873796</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2186103736447479</v>
+        <v>0.2188093203036686</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.175409534580368</v>
+        <v>0.1724179124384556</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1541019905204467</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2271894290359277</v>
+        <v>0.2271894290359276</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1019884022568718</v>
+        <v>0.1010039808526719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1421766559907699</v>
+        <v>0.1398133438163096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1174791394447258</v>
+        <v>0.1213003290980594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.17710623818354</v>
+        <v>0.1783255774025859</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1532757977478523</v>
+        <v>0.1568819406309545</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1875045045596419</v>
+        <v>0.1857205417514705</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1186019726814169</v>
+        <v>0.1162488784302596</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.202575334574694</v>
+        <v>0.203789981730171</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1397835073072697</v>
+        <v>0.1406405867925885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1761310631151645</v>
+        <v>0.1753011212225051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1289680497647435</v>
+        <v>0.1278049636194223</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2036623920032972</v>
+        <v>0.2019959272370027</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1803415605245453</v>
+        <v>0.1764033126973111</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2301358975297398</v>
+        <v>0.2256282942957046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1958146695737514</v>
+        <v>0.1975684335195748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2584251461977344</v>
+        <v>0.2555709973910206</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2415234763094679</v>
+        <v>0.2464073926963697</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2824170330782871</v>
+        <v>0.2808592082112752</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2026368732574487</v>
+        <v>0.2031750197776598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2725852469429382</v>
+        <v>0.2736879790347806</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.197474727506043</v>
+        <v>0.197396376052849</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2365521775572509</v>
+        <v>0.2374844260699557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1867663370165384</v>
+        <v>0.1828919861945385</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2543041124387974</v>
+        <v>0.2542320993830378</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.168142948638557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1849807436017278</v>
+        <v>0.1849807436017279</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1825818463732825</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1018710375281854</v>
+        <v>0.1020282615058658</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1417896011190856</v>
+        <v>0.1434037850047084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1328108906959805</v>
+        <v>0.1301920844439919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.147956529834002</v>
+        <v>0.1433179413335469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1468807485662683</v>
+        <v>0.1473923271402844</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2034163801296191</v>
+        <v>0.2062012714992941</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1693829664585054</v>
+        <v>0.1747958188016431</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1808504047643526</v>
+        <v>0.1822866783934929</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.132227802679661</v>
+        <v>0.1350167454185925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1857899980323761</v>
+        <v>0.1867904155334613</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1652821429685158</v>
+        <v>0.1652742306747282</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1751795822312396</v>
+        <v>0.1758006591065725</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1692851204665892</v>
+        <v>0.1710395161199373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2277257037241762</v>
+        <v>0.2286609552846436</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2083204067062859</v>
+        <v>0.2086190243947424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2310154540060098</v>
+        <v>0.2300296101584562</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2261372952349159</v>
+        <v>0.2246763501269395</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2899340406501317</v>
+        <v>0.2932302402693268</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2649232284610203</v>
+        <v>0.2631439345391598</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2434501283883105</v>
+        <v>0.2440905516649411</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1847870217228041</v>
+        <v>0.1861077752365954</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2461086295680141</v>
+        <v>0.248090836716503</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2240267804031272</v>
+        <v>0.2263700089776803</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2247479998933113</v>
+        <v>0.2271042496829228</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1934026070724303</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.252407235185818</v>
+        <v>0.2524072351858179</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.104262370186538</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05467331558469399</v>
+        <v>0.05413816126286951</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1078704675055836</v>
+        <v>0.1104983581292293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06868683785544211</v>
+        <v>0.06955128665250114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1421322717994069</v>
+        <v>0.1410290680503608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07863846328771837</v>
+        <v>0.07929443082403123</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2079168061898633</v>
+        <v>0.2058266155647752</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1468867893779632</v>
+        <v>0.1478557312594009</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2164642910287945</v>
+        <v>0.215735031292491</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0774374821046081</v>
+        <v>0.07523296209310802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1700686811845822</v>
+        <v>0.1708602429343672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1168269598507441</v>
+        <v>0.121028585622069</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1877688454493135</v>
+        <v>0.1915366669828083</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1298716817571368</v>
+        <v>0.1318993447822105</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2130401443839278</v>
+        <v>0.2158459936530451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1604483358428204</v>
+        <v>0.1593996769960556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2264891706039348</v>
+        <v>0.2218411836391527</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1754746674913773</v>
+        <v>0.1734061233884859</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3296439924702704</v>
+        <v>0.327431513836102</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2523728359642066</v>
+        <v>0.2519195124355817</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2904901962846607</v>
+        <v>0.2914228457278596</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1390899017983196</v>
+        <v>0.1337425500345793</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2502999029571955</v>
+        <v>0.2538929759818888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1888234891693708</v>
+        <v>0.18950643393533</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.245654032099916</v>
+        <v>0.2451838054177387</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1661380453523792</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2367031104727743</v>
+        <v>0.2367031104727742</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1745056026471696</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1147497227227799</v>
+        <v>0.1171418747319379</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1817926703233554</v>
+        <v>0.1816510066906614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1019411426093443</v>
+        <v>0.09990311051715006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2266145001534504</v>
+        <v>0.2276026001451625</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1503431202655928</v>
+        <v>0.1509736322601811</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1770287775470138</v>
+        <v>0.178739943790946</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1262282725233159</v>
+        <v>0.1234481467972078</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2011330330017617</v>
+        <v>0.2020189258169037</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1441442290137568</v>
+        <v>0.1432849407217671</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1925818648022751</v>
+        <v>0.1938206584863263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1203589607004409</v>
+        <v>0.1259284281437139</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2278440104483888</v>
+        <v>0.2250953916391513</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1986115206523064</v>
+        <v>0.2014908036115469</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2818401659736823</v>
+        <v>0.2877511395467031</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1833843205734758</v>
+        <v>0.1815580749886785</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3117291453075561</v>
+        <v>0.3178562574646705</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.246617935896059</v>
+        <v>0.245782198950883</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2816182123281661</v>
+        <v>0.2802791503096504</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2188271433245671</v>
+        <v>0.2136468550761025</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2709440136208077</v>
+        <v>0.274780080796911</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2061209253175219</v>
+        <v>0.2066891626513623</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2630621925795682</v>
+        <v>0.2654085305751763</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1841473851452718</v>
+        <v>0.1843666926209281</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2820815067610468</v>
+        <v>0.2825885791920162</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1415425817926156</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.2045517679142937</v>
+        <v>0.2045517679142936</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1655215776998295</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1180193039050252</v>
+        <v>0.1161685313415253</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1508422114933118</v>
+        <v>0.1544955337559767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1210253623935314</v>
+        <v>0.1206278381606758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1541516439807559</v>
+        <v>0.1549591802391389</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1548982709564857</v>
+        <v>0.1560318198399044</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1999086771141922</v>
+        <v>0.1945982811502205</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1154122138271376</v>
+        <v>0.1134648101529981</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.180227792832814</v>
+        <v>0.1803494206990274</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1436363571936228</v>
+        <v>0.1444555176962898</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1838989902929941</v>
+        <v>0.1835208253773722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1272159859324513</v>
+        <v>0.1261652835686679</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1729482439748907</v>
+        <v>0.1732018936913251</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.177055394674511</v>
+        <v>0.1724949196293849</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2153248367378458</v>
+        <v>0.2197916149586844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1769359108840241</v>
+        <v>0.1797013478024874</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2135436065053564</v>
+        <v>0.2131425927927267</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2171672382423218</v>
+        <v>0.2177405153893466</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2621704218318959</v>
+        <v>0.2628464895848732</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1736286343717754</v>
+        <v>0.1699517639395537</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2318937113644856</v>
+        <v>0.2290631255992638</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1873802794500065</v>
+        <v>0.1869181654505458</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2282589808011531</v>
+        <v>0.2292528987336686</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1663181628221069</v>
+        <v>0.1670569743084184</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2116739244950571</v>
+        <v>0.2117812105440134</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.17409123183578</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1939937132617093</v>
+        <v>0.1939937132617094</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09592649465245891</v>
+        <v>0.09537274397896967</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1176340614235112</v>
+        <v>0.1185306176507143</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1365773206139775</v>
+        <v>0.1340904103878006</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1517594661483885</v>
+        <v>0.15008321556396</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1086890716217887</v>
+        <v>0.1105998767698546</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1393792378312417</v>
+        <v>0.1406948713559653</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.157169186362092</v>
+        <v>0.1583822598166826</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1893335834395093</v>
+        <v>0.1888345629992378</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1086144048454175</v>
+        <v>0.1083004586644101</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1361489170952338</v>
+        <v>0.1347478555929457</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1568974196406728</v>
+        <v>0.1547955190401347</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1772474057098917</v>
+        <v>0.1765218097054093</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1414862621766932</v>
+        <v>0.1424561274515556</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1716686227338638</v>
+        <v>0.173957426815631</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1886391573204799</v>
+        <v>0.1892904484675124</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2012959516045867</v>
+        <v>0.2040481914903053</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1607827511891777</v>
+        <v>0.1577508981713737</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1941302244001709</v>
+        <v>0.1928066275510354</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2212155448378987</v>
+        <v>0.217197620327731</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2350081810236672</v>
+        <v>0.2363068454869859</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1423766680866766</v>
+        <v>0.14413271764126</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1730726030051053</v>
+        <v>0.1721350227817662</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1951788121108416</v>
+        <v>0.1945588546318523</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2104185091512884</v>
+        <v>0.2121469856598594</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.1483606250497135</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.187796010631028</v>
+        <v>0.1877960106310279</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1667212087860317</v>
@@ -1785,7 +1785,7 @@
         <v>0.1632986565693131</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1967788046879843</v>
+        <v>0.1967788046879842</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.154210031930439</v>
+        <v>0.150350976944291</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1370669327622598</v>
+        <v>0.1374089668870654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1750227934358431</v>
+        <v>0.1762513565262139</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.193969569612159</v>
+        <v>0.1966468755524213</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.163679838705307</v>
+        <v>0.1649119799062983</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1945448447457685</v>
+        <v>0.1944291555416998</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1779861242379628</v>
+        <v>0.1788897491775781</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1546243970722453</v>
+        <v>0.1543057590977272</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1886385343941576</v>
+        <v>0.1889832158006785</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1798397490374349</v>
+        <v>0.1787000417900621</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1620158065290756</v>
+        <v>0.1615976509356556</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2002732370917117</v>
+        <v>0.2010529655499251</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2229966806479228</v>
+        <v>0.2235727193707665</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1928606882783192</v>
+        <v>0.1916597855280309</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2147840256747564</v>
+        <v>0.21552720684233</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1975497307028977</v>
+        <v>0.1979334361481288</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1726040855302522</v>
+        <v>0.1719163951746582</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2046487360578197</v>
+        <v>0.2048057457887411</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24234</v>
+        <v>23781</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24291</v>
+        <v>24815</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20914</v>
+        <v>20815</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52735</v>
+        <v>55105</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26961</v>
+        <v>28629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31126</v>
+        <v>32443</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26532</v>
+        <v>26065</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45856</v>
+        <v>46005</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>56934</v>
+        <v>57172</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>62836</v>
+        <v>64003</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>51182</v>
+        <v>52168</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>108490</v>
+        <v>105384</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45320</v>
+        <v>44518</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48304</v>
+        <v>49344</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40880</v>
+        <v>42419</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81096</v>
+        <v>81863</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50450</v>
+        <v>51808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>58567</v>
+        <v>57667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50926</v>
+        <v>50560</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>65549</v>
+        <v>65142</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87565</v>
+        <v>88280</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>97388</v>
+        <v>97832</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>83304</v>
+        <v>84145</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>142941</v>
+        <v>140132</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40093</v>
+        <v>39483</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>62306</v>
+        <v>63622</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65610</v>
+        <v>65460</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>61757</v>
+        <v>64501</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>72529</v>
+        <v>74568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>88991</v>
+        <v>90253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>99853</v>
+        <v>97984</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>69479</v>
+        <v>70011</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>123416</v>
+        <v>123058</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>162316</v>
+        <v>162511</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>171941</v>
+        <v>172938</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>143869</v>
+        <v>140304</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67412</v>
+        <v>67468</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>97996</v>
+        <v>99137</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>99133</v>
+        <v>98400</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98454</v>
+        <v>99192</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>108739</v>
+        <v>109768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>127831</v>
+        <v>128596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>139130</v>
+        <v>140760</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>99030</v>
+        <v>97294</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>166287</v>
+        <v>166410</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>216295</v>
+        <v>211502</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>224220</v>
+        <v>224424</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>188381</v>
+        <v>185168</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32519</v>
+        <v>32205</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45940</v>
+        <v>45176</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37425</v>
+        <v>38642</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>55964</v>
+        <v>56350</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>51411</v>
+        <v>52620</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63943</v>
+        <v>63334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>39887</v>
+        <v>39096</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>72194</v>
+        <v>72627</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91454</v>
+        <v>92015</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>116975</v>
+        <v>116424</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>84458</v>
+        <v>83696</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>136938</v>
+        <v>135817</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57501</v>
+        <v>56245</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74361</v>
+        <v>72904</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62380</v>
+        <v>62938</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>81661</v>
+        <v>80759</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>81010</v>
+        <v>82648</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96310</v>
+        <v>95779</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68149</v>
+        <v>68330</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>97144</v>
+        <v>97537</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>129199</v>
+        <v>129148</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>157103</v>
+        <v>157722</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>122308</v>
+        <v>119771</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>170988</v>
+        <v>170939</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36538</v>
+        <v>36595</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>53027</v>
+        <v>53630</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49135</v>
+        <v>48166</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55209</v>
+        <v>53478</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54560</v>
+        <v>54750</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>78920</v>
+        <v>80001</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65599</v>
+        <v>67695</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>76312</v>
+        <v>76918</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>96543</v>
+        <v>98579</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>141564</v>
+        <v>142326</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>125159</v>
+        <v>125153</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>139287</v>
+        <v>139780</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>60718</v>
+        <v>61347</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85165</v>
+        <v>85515</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77071</v>
+        <v>77182</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>86202</v>
+        <v>85834</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>84000</v>
+        <v>83457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>112487</v>
+        <v>113766</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>102600</v>
+        <v>101911</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>102726</v>
+        <v>102997</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>134918</v>
+        <v>135882</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>187524</v>
+        <v>189034</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>169644</v>
+        <v>171418</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>178699</v>
+        <v>180572</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11116</v>
+        <v>11007</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>22935</v>
+        <v>23494</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14508</v>
+        <v>14691</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29232</v>
+        <v>29005</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16331</v>
+        <v>16467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45657</v>
+        <v>45198</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32108</v>
+        <v>32319</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49184</v>
+        <v>49018</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>31825</v>
+        <v>30919</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>73505</v>
+        <v>73847</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50213</v>
+        <v>52019</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>81281</v>
+        <v>82912</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26404</v>
+        <v>26816</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45296</v>
+        <v>45893</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33890</v>
+        <v>33669</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>46581</v>
+        <v>45625</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36440</v>
+        <v>36011</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>72387</v>
+        <v>71901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55165</v>
+        <v>55066</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>66004</v>
+        <v>66216</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>57163</v>
+        <v>54965</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>108182</v>
+        <v>109735</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>81158</v>
+        <v>81451</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>106338</v>
+        <v>106135</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>31075</v>
+        <v>31723</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>49808</v>
+        <v>49769</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>26823</v>
+        <v>26287</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>61346</v>
+        <v>61614</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>41817</v>
+        <v>41992</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>49416</v>
+        <v>49893</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>34475</v>
+        <v>33716</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>53049</v>
+        <v>53282</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>79129</v>
+        <v>78657</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>106521</v>
+        <v>107206</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>64541</v>
+        <v>67528</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>121773</v>
+        <v>120304</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>53786</v>
+        <v>54566</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>77219</v>
+        <v>78838</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>48253</v>
+        <v>47772</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>84387</v>
+        <v>86046</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>68595</v>
+        <v>68363</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>78611</v>
+        <v>78237</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>59765</v>
+        <v>58350</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>71461</v>
+        <v>72473</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>113151</v>
+        <v>113463</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>145505</v>
+        <v>146803</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>98747</v>
+        <v>98864</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>150760</v>
+        <v>151031</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>72585</v>
+        <v>71447</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>99976</v>
+        <v>102398</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>79460</v>
+        <v>79199</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>110941</v>
+        <v>111522</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>98859</v>
+        <v>99582</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>138707</v>
+        <v>135023</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>79784</v>
+        <v>78438</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>139146</v>
+        <v>139240</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>180012</v>
+        <v>181038</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>249485</v>
+        <v>248972</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>171468</v>
+        <v>170052</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>257995</v>
+        <v>258373</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>108894</v>
+        <v>106089</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>142715</v>
+        <v>145675</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>116169</v>
+        <v>117984</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>153685</v>
+        <v>153396</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>138600</v>
+        <v>138966</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>181908</v>
+        <v>182377</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>120028</v>
+        <v>117487</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>179035</v>
+        <v>176850</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>234834</v>
+        <v>234254</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>309665</v>
+        <v>311014</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>224172</v>
+        <v>225168</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>315763</v>
+        <v>315923</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>71252</v>
+        <v>70841</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>91398</v>
+        <v>92095</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>106337</v>
+        <v>104401</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>121115</v>
+        <v>119777</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>85159</v>
+        <v>86656</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>114346</v>
+        <v>115425</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>129848</v>
+        <v>130850</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>157148</v>
+        <v>156734</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>165777</v>
+        <v>165298</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>217480</v>
+        <v>215242</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>251781</v>
+        <v>248408</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>288573</v>
+        <v>287391</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>105093</v>
+        <v>105813</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>133382</v>
+        <v>135160</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>146871</v>
+        <v>147378</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>160649</v>
+        <v>162845</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>125975</v>
+        <v>123600</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>159263</v>
+        <v>158178</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>182761</v>
+        <v>179442</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>195058</v>
+        <v>196136</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>217308</v>
+        <v>219988</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>276460</v>
+        <v>274963</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>313213</v>
+        <v>312218</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>342578</v>
+        <v>345392</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>527706</v>
+        <v>514500</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>465253</v>
+        <v>466414</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>617980</v>
+        <v>622317</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>688015</v>
+        <v>697512</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>580170</v>
+        <v>584537</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>726167</v>
+        <v>725735</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1240389</v>
+        <v>1246686</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1072922</v>
+        <v>1070711</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1370175</v>
+        <v>1372679</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>615411</v>
+        <v>611510</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>549938</v>
+        <v>548519</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>707135</v>
+        <v>709888</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>790975</v>
+        <v>793019</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>683603</v>
+        <v>679346</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>801713</v>
+        <v>804487</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1376728</v>
+        <v>1379402</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1197681</v>
+        <v>1192909</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1486465</v>
+        <v>1487606</v>
       </c>
     </row>
     <row r="40">
